--- a/data/reference_data.xlsx
+++ b/data/reference_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\WebstormProjects\TB_QBO_Converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD60B9-8648-47E6-A0AA-03DFDCE96106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75C98C-CD0D-4C46-B21D-4F619EE4A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5295" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DetailTypes" sheetId="3" r:id="rId3"/>
     <sheet name="GIFI" sheetId="5" r:id="rId4"/>
     <sheet name="Keywords" sheetId="6" r:id="rId5"/>
+    <sheet name="CategoryIndicators" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="2263">
   <si>
     <t>Category</t>
   </si>
@@ -6799,6 +6800,33 @@
   </si>
   <si>
     <t>REVENUS D'INTÉRÊTS</t>
+  </si>
+  <si>
+    <t>IsDefault</t>
+  </si>
+  <si>
+    <t>IsFallback</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>CHARGES</t>
+  </si>
+  <si>
+    <t>EXPENSE</t>
+  </si>
+  <si>
+    <t>DÉPENSE</t>
+  </si>
+  <si>
+    <t>DÉPENSES</t>
+  </si>
+  <si>
+    <t>FRAIS</t>
   </si>
 </sst>
 </file>
@@ -7642,10 +7670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7653,10 +7681,10 @@
     <col min="1" max="1" width="22.59765625" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="3" width="44.59765625" customWidth="1"/>
-    <col min="4" max="4" width="66.8984375" customWidth="1"/>
+    <col min="4" max="4" width="68.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1851</v>
       </c>
@@ -7669,8 +7697,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1716</v>
       </c>
@@ -7681,13 +7715,13 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1716</v>
       </c>
@@ -7698,13 +7732,10 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1716</v>
       </c>
@@ -7715,13 +7746,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1716</v>
       </c>
@@ -7732,13 +7760,10 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1716</v>
       </c>
@@ -7749,13 +7774,10 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1716</v>
       </c>
@@ -7766,13 +7788,10 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -7785,11 +7804,11 @@
       <c r="D8" t="s">
         <v>1841</v>
       </c>
-      <c r="E8" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1852</v>
       </c>
@@ -7800,13 +7819,16 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1852</v>
       </c>
@@ -7817,13 +7839,10 @@
         <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1852</v>
       </c>
@@ -7834,13 +7853,10 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1852</v>
       </c>
@@ -7851,13 +7867,10 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1852</v>
       </c>
@@ -7868,13 +7881,10 @@
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1852</v>
       </c>
@@ -7885,13 +7895,10 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1852</v>
       </c>
@@ -7902,13 +7909,10 @@
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1852</v>
       </c>
@@ -7919,9 +7923,6 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
         <v>1876</v>
       </c>
     </row>
@@ -7936,9 +7937,6 @@
         <v>1878</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7953,9 +7951,6 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7970,9 +7965,6 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
         <v>1881</v>
       </c>
     </row>
@@ -7987,9 +7979,6 @@
         <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
         <v>1883</v>
       </c>
     </row>
@@ -8004,9 +7993,6 @@
         <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8021,10 +8007,10 @@
         <v>417</v>
       </c>
       <c r="D22" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E22" t="s">
         <v>1886</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -8038,9 +8024,6 @@
         <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8055,9 +8038,6 @@
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E24" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8072,9 +8052,6 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8089,9 +8066,6 @@
         <v>1891</v>
       </c>
       <c r="D26" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E26" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -8106,9 +8080,6 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E27" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -8123,9 +8094,6 @@
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -8140,9 +8108,6 @@
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8157,9 +8122,6 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E30" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -8174,10 +8136,10 @@
         <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E31" t="s">
         <v>108</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -8191,13 +8153,10 @@
         <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E32" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -8208,13 +8167,10 @@
         <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -8225,13 +8181,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E34" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>106</v>
       </c>
@@ -8242,13 +8195,10 @@
         <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -8259,13 +8209,10 @@
         <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -8276,13 +8223,10 @@
         <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -8293,13 +8237,10 @@
         <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E38" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>106</v>
       </c>
@@ -8310,13 +8251,10 @@
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E39" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -8327,13 +8265,10 @@
         <v>1911</v>
       </c>
       <c r="D40" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E40" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -8344,13 +8279,10 @@
         <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E41" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -8361,13 +8293,10 @@
         <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E42" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -8380,11 +8309,11 @@
       <c r="D43" t="s">
         <v>1844</v>
       </c>
-      <c r="E43" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -8397,11 +8326,11 @@
       <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1854</v>
       </c>
@@ -8412,13 +8341,16 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E45" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1854</v>
       </c>
@@ -8429,13 +8361,10 @@
         <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1854</v>
       </c>
@@ -8446,13 +8375,10 @@
         <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E47" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1854</v>
       </c>
@@ -8463,9 +8389,6 @@
         <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E48" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -8480,9 +8403,6 @@
         <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E49" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -8497,9 +8417,6 @@
         <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E50" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -8514,9 +8431,6 @@
         <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8531,9 +8445,6 @@
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E52" t="s">
         <v>1929</v>
       </c>
     </row>
@@ -8548,9 +8459,6 @@
         <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E53" t="s">
         <v>1931</v>
       </c>
     </row>
@@ -8565,9 +8473,6 @@
         <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E54" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -8582,9 +8487,6 @@
         <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E55" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -8599,9 +8501,6 @@
         <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E56" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -8616,9 +8515,6 @@
         <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E57" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8633,9 +8529,6 @@
         <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E58" t="s">
         <v>1940</v>
       </c>
     </row>
@@ -8650,9 +8543,6 @@
         <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E59" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -8667,10 +8557,10 @@
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s">
         <v>149</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -8684,9 +8574,6 @@
         <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -8701,9 +8588,6 @@
         <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s">
         <v>154</v>
       </c>
     </row>
@@ -8718,9 +8602,6 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
         <v>1947</v>
       </c>
     </row>
@@ -8735,13 +8616,10 @@
         <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1855</v>
       </c>
@@ -8752,13 +8630,10 @@
         <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1855</v>
       </c>
@@ -8769,13 +8644,10 @@
         <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1855</v>
       </c>
@@ -8786,13 +8658,10 @@
         <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1856</v>
       </c>
@@ -8803,13 +8672,10 @@
         <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E68" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1856</v>
       </c>
@@ -8820,13 +8686,10 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E69" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1856</v>
       </c>
@@ -8837,13 +8700,16 @@
         <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1856</v>
       </c>
@@ -8854,13 +8720,10 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E71" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1856</v>
       </c>
@@ -8871,13 +8734,10 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E72" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1856</v>
       </c>
@@ -8888,13 +8748,10 @@
         <v>169</v>
       </c>
       <c r="D73" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E73" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1856</v>
       </c>
@@ -8905,13 +8762,10 @@
         <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E74" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1856</v>
       </c>
@@ -8922,13 +8776,10 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E75" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1856</v>
       </c>
@@ -8939,13 +8790,10 @@
         <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E76" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1856</v>
       </c>
@@ -8956,13 +8804,10 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E77" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1856</v>
       </c>
@@ -8973,13 +8818,10 @@
         <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E78" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1856</v>
       </c>
@@ -8990,13 +8832,10 @@
         <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E79" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -9007,10 +8846,10 @@
         <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
         <v>1974</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -9024,9 +8863,6 @@
         <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
         <v>1976</v>
       </c>
     </row>
@@ -9041,9 +8877,6 @@
         <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
         <v>1978</v>
       </c>
     </row>
@@ -9058,9 +8891,6 @@
         <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
         <v>1980</v>
       </c>
     </row>
@@ -9075,9 +8905,6 @@
         <v>1982</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
         <v>1983</v>
       </c>
     </row>
@@ -9092,9 +8919,6 @@
         <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -9109,10 +8933,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E86" t="s">
         <v>10</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -9126,9 +8950,6 @@
         <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" t="s">
         <v>1987</v>
       </c>
     </row>
@@ -9143,9 +8964,6 @@
         <v>200</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -9160,9 +8978,6 @@
         <v>202</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" t="s">
         <v>1991</v>
       </c>
     </row>
@@ -9177,9 +8992,6 @@
         <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -9194,9 +9006,6 @@
         <v>195</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -9211,9 +9020,6 @@
         <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
-      </c>
-      <c r="E92" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9230,8 +9036,8 @@
       <c r="D93" t="s">
         <v>1847</v>
       </c>
-      <c r="E93" t="s">
-        <v>1847</v>
+      <c r="E93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -9245,9 +9051,6 @@
         <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E94" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -9262,9 +9065,6 @@
         <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E95" t="s">
         <v>2000</v>
       </c>
     </row>
@@ -9279,9 +9079,6 @@
         <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E96" t="s">
         <v>2002</v>
       </c>
     </row>
@@ -9296,9 +9093,6 @@
         <v>210</v>
       </c>
       <c r="D97" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E97" t="s">
         <v>2004</v>
       </c>
     </row>
@@ -9313,9 +9107,6 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E98" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -9330,10 +9121,10 @@
         <v>247</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" t="s">
         <v>248</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -9347,9 +9138,6 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9364,9 +9152,6 @@
         <v>214</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9381,9 +9166,6 @@
         <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -9398,9 +9180,6 @@
         <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9415,9 +9194,6 @@
         <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" t="s">
         <v>2012</v>
       </c>
     </row>
@@ -9432,9 +9208,6 @@
         <v>222</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" t="s">
         <v>223</v>
       </c>
     </row>
@@ -9449,9 +9222,6 @@
         <v>227</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -9466,9 +9236,6 @@
         <v>2017</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" t="s">
         <v>2018</v>
       </c>
     </row>
@@ -9483,9 +9250,6 @@
         <v>249</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" t="s">
         <v>2019</v>
       </c>
     </row>
@@ -9500,9 +9264,6 @@
         <v>262</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" t="s">
         <v>2020</v>
       </c>
     </row>
@@ -9517,9 +9278,6 @@
         <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" t="s">
         <v>2022</v>
       </c>
     </row>
@@ -9534,9 +9292,6 @@
         <v>257</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9551,9 +9306,6 @@
         <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9568,9 +9320,6 @@
         <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" t="s">
         <v>258</v>
       </c>
     </row>
@@ -9585,9 +9334,6 @@
         <v>228</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9602,9 +9348,6 @@
         <v>241</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" t="s">
         <v>2027</v>
       </c>
     </row>
@@ -9619,9 +9362,6 @@
         <v>238</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" t="s">
         <v>239</v>
       </c>
     </row>
@@ -9636,9 +9376,6 @@
         <v>231</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" t="s">
         <v>2030</v>
       </c>
     </row>
@@ -9653,9 +9390,6 @@
         <v>252</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" t="s">
         <v>2031</v>
       </c>
     </row>
@@ -9670,9 +9404,6 @@
         <v>212</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" t="s">
         <v>2033</v>
       </c>
     </row>
@@ -9687,9 +9418,6 @@
         <v>250</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" t="s">
         <v>2035</v>
       </c>
     </row>
@@ -9704,9 +9432,6 @@
         <v>263</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" t="s">
         <v>2037</v>
       </c>
     </row>
@@ -9721,9 +9446,6 @@
         <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -9738,9 +9460,6 @@
         <v>254</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9755,9 +9474,6 @@
         <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9772,9 +9488,6 @@
         <v>260</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -9789,10 +9502,10 @@
         <v>275</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
-      </c>
-      <c r="E126" t="s">
         <v>2043</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -9806,9 +9519,6 @@
         <v>276</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
-      </c>
-      <c r="E127" t="s">
         <v>2045</v>
       </c>
     </row>
@@ -9823,13 +9533,10 @@
         <v>268</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
-      </c>
-      <c r="E128" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1858</v>
       </c>
@@ -9840,13 +9547,10 @@
         <v>270</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
-      </c>
-      <c r="E129" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1858</v>
       </c>
@@ -9857,16 +9561,13 @@
         <v>273</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
-      </c>
-      <c r="E130" t="s">
         <v>2047</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 C1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="B1 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9875,8 +9576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18137,8 +17838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E389"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection sqref="A1:E389"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -24765,4 +24466,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79703D5B-C890-40E5-A228-DD50F9AC0CE1}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/reference_data.xlsx
+++ b/data/reference_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\WebstormProjects\TB_QBO_Converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75C98C-CD0D-4C46-B21D-4F619EE4A394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA10207D-8D70-47A2-B9B3-0F0963EC09AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5295" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5295" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Keywords" sheetId="6" r:id="rId5"/>
     <sheet name="CategoryIndicators" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Keywords!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="2263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="2280">
   <si>
     <t>Category</t>
   </si>
@@ -6827,6 +6830,57 @@
   </si>
   <si>
     <t>FRAIS</t>
+  </si>
+  <si>
+    <t>PAYROLL CLEARING</t>
+  </si>
+  <si>
+    <t>CHEQUES</t>
+  </si>
+  <si>
+    <t>TD CANADA TRUST</t>
+  </si>
+  <si>
+    <t>TELPAY</t>
+  </si>
+  <si>
+    <t>CLEARING</t>
+  </si>
+  <si>
+    <t>ACCOUNTS RECEIVABLE</t>
+  </si>
+  <si>
+    <t>DUE FROM</t>
+  </si>
+  <si>
+    <t>A/A</t>
+  </si>
+  <si>
+    <t>WARRANTIES</t>
+  </si>
+  <si>
+    <t>SHAREHOLDER LOAN</t>
+  </si>
+  <si>
+    <t>VACATION PAY OWING</t>
+  </si>
+  <si>
+    <t>PAYROLL LIABILITIES</t>
+  </si>
+  <si>
+    <t>DIVIDENDS</t>
+  </si>
+  <si>
+    <t>LEASE PAYMENTS</t>
+  </si>
+  <si>
+    <t>EMPLOYEE ADVANCES</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>INVENTORY ASSET</t>
   </si>
 </sst>
 </file>
@@ -7672,8 +7726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17836,10 +17890,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:E407"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:E72"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17869,24 +17923,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2049</v>
+        <v>2117</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>1884</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2050</v>
+        <v>2075</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -17895,32 +17949,32 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1897</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2051</v>
+        <v>2250</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>1884</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -17932,12 +17986,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2053</v>
+        <v>2270</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -17954,7 +18008,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -17963,66 +18017,66 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>1884</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2054</v>
+        <v>2208</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>1884</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2055</v>
+        <v>1819</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>1870</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1698</v>
+        <v>1753</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>1859</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2056</v>
+        <v>2268</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -18034,29 +18088,29 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>1859</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2057</v>
+        <v>1745</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>1866</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2058</v>
+        <v>1729</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -18065,15 +18119,15 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -18085,63 +18139,63 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>1875</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1699</v>
+        <v>2209</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>1868</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2060</v>
+        <v>2141</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16" t="s">
-        <v>1885</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2061</v>
+        <v>2142</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17" t="s">
-        <v>1901</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1700</v>
+        <v>2076</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -18150,66 +18204,66 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>1866</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>1701</v>
+        <v>2076</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>1901</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2062</v>
+        <v>2129</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>1874</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1702</v>
+        <v>2210</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>1874</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1703</v>
+        <v>1714</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -18218,100 +18272,100 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>1885</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1704</v>
+        <v>1746</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>1885</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2063</v>
+        <v>2161</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1885</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1705</v>
+        <v>1787</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1885</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1706</v>
+        <v>2162</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1874</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2064</v>
+        <v>2211</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>1885</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2065</v>
+        <v>2051</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -18323,12 +18377,12 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2066</v>
+        <v>2052</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -18345,7 +18399,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2067</v>
+        <v>2091</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -18354,15 +18408,15 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>1872</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2068</v>
+        <v>2077</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -18371,7 +18425,7 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>1885</v>
@@ -18379,41 +18433,41 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2069</v>
+        <v>1735</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>1718</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>1707</v>
+        <v>1735</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>1718</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2070</v>
+        <v>2053</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -18425,12 +18479,12 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>1874</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -18442,29 +18496,29 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1870</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2071</v>
+        <v>1697</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>1870</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1709</v>
+        <v>2054</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -18476,148 +18530,148 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2072</v>
+        <v>2054</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>1885</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2073</v>
+        <v>2130</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1866</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1710</v>
+        <v>1784</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>1872</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1711</v>
+        <v>1866</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>1896</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2074</v>
+        <v>1806</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>1885</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1712</v>
+        <v>2104</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>1859</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2075</v>
+        <v>2163</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>1866</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1713</v>
+        <v>2164</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>1866</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2076</v>
+        <v>1715</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -18629,80 +18683,80 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>1877</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>1866</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2077</v>
+        <v>1788</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>1885</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>1715</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2078</v>
+        <v>2230</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
       <c r="E50" t="s">
-        <v>1866</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -18714,80 +18768,80 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>1716</v>
+        <v>2078</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>1859</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2081</v>
+        <v>2118</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>1885</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1717</v>
+        <v>2165</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>1885</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>1718</v>
+        <v>2079</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -18799,29 +18853,29 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>1718</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1719</v>
+        <v>2212</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>1866</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2082</v>
+        <v>1716</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -18833,29 +18887,29 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>1718</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>1885</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -18867,12 +18921,12 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -18884,46 +18938,46 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>1861</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2085</v>
+        <v>2143</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2086</v>
+        <v>2140</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>1870</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -18935,165 +18989,165 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2087</v>
+        <v>2125</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>1859</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2088</v>
+        <v>2119</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>1861</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>1722</v>
+        <v>2119</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>1885</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>1723</v>
+        <v>1764</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>1904</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2089</v>
+        <v>2131</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>1874</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2090</v>
+        <v>2132</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>1877</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1724</v>
+        <v>2166</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>1880</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1725</v>
+        <v>2213</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>1866</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>1726</v>
+        <v>2105</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>1861</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -19105,80 +19159,80 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>1874</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
-        <v>1867</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2091</v>
+        <v>2144</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>1885</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2092</v>
+        <v>1790</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>1885</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2093</v>
+        <v>2167</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>1885</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2094</v>
+        <v>2055</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -19187,15 +19241,15 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>1859</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2095</v>
+        <v>2264</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -19204,15 +19258,15 @@
         <v>3</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>1884</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2096</v>
+        <v>1698</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -19221,32 +19275,32 @@
         <v>3</v>
       </c>
       <c r="D81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>1885</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2097</v>
+        <v>2159</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
         <v>3</v>
       </c>
-      <c r="D82">
-        <v>8</v>
-      </c>
       <c r="E82" t="s">
-        <v>1885</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2098</v>
+        <v>1731</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -19255,15 +19309,15 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2099</v>
+        <v>2267</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -19272,15 +19326,15 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>1885</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2100</v>
+        <v>1719</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -19289,134 +19343,134 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>1885</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2101</v>
+        <v>1781</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>1885</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2102</v>
+        <v>2152</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>1885</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2103</v>
+        <v>1772</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="D88">
-        <v>9</v>
-      </c>
       <c r="E88" t="s">
-        <v>1885</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1729</v>
+        <v>1758</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>1859</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1730</v>
+        <v>2133</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>1885</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1731</v>
+        <v>2214</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D91">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>1859</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1732</v>
+        <v>2168</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>1866</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1733</v>
+        <v>2082</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -19425,15 +19479,15 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>1893</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1734</v>
+        <v>2056</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -19442,61 +19496,61 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1735</v>
+        <v>2057</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2104</v>
+        <v>1824</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>1932</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2105</v>
+        <v>1720</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97">
         <v>2</v>
       </c>
-      <c r="C97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -19518,24 +19572,24 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2106</v>
+        <v>2058</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>1939</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1737</v>
+        <v>2058</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -19544,100 +19598,100 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1738</v>
+        <v>1791</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>1917</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1739</v>
+        <v>1782</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>1932</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2107</v>
+        <v>2215</v>
       </c>
       <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
         <v>2</v>
       </c>
-      <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
       <c r="E103" t="s">
-        <v>1954</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2108</v>
+        <v>2216</v>
       </c>
       <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
         <v>2</v>
       </c>
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
       <c r="E104" t="s">
-        <v>1917</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1700</v>
+        <v>2169</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>1941</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -19649,12 +19703,12 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>1740</v>
+        <v>2126</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -19663,49 +19717,49 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>1932</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1741</v>
+        <v>2170</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>1742</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1742</v>
+        <v>2217</v>
       </c>
       <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109">
         <v>2</v>
       </c>
-      <c r="C109" t="s">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
       <c r="E109" t="s">
-        <v>1742</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2110</v>
+        <v>1737</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -19717,114 +19771,114 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>1742</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1743</v>
+        <v>2171</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2111</v>
+        <v>2172</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>1939</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2112</v>
+        <v>1774</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E114" t="s">
-        <v>1917</v>
+        <v>198</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2113</v>
+        <v>2243</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>1946</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2114</v>
+        <v>2095</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>1932</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>2115</v>
+        <v>1738</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -19836,46 +19890,46 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>1941</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2073</v>
+        <v>2083</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
       <c r="E118" t="s">
-        <v>1941</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2116</v>
+        <v>2084</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119">
         <v>2</v>
       </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
       <c r="E119" t="s">
-        <v>1932</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>1712</v>
+        <v>1754</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -19884,117 +19938,117 @@
         <v>5</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E120" t="s">
-        <v>121</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2117</v>
+        <v>2085</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>1917</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>1745</v>
+        <v>2173</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>1917</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2076</v>
+        <v>2218</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>1946</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E124" t="s">
-        <v>1917</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>2118</v>
+        <v>2098</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>1917</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>2119</v>
+        <v>2086</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>1742</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -20003,100 +20057,100 @@
         <v>5</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>1954</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2121</v>
+        <v>1825</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E128" t="s">
-        <v>1917</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>2122</v>
+        <v>2244</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E129" t="s">
-        <v>1941</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>2090</v>
+        <v>2145</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>1946</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>1724</v>
+        <v>1771</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>1954</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1747</v>
+        <v>2153</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>1945</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>2123</v>
+        <v>1749</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -20105,7 +20159,7 @@
         <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
         <v>1917</v>
@@ -20113,41 +20167,41 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1709</v>
+        <v>1749</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>1946</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1748</v>
+        <v>2251</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>1941</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1749</v>
+        <v>2128</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -20156,7 +20210,7 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
         <v>1917</v>
@@ -20164,211 +20218,211 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1721</v>
+        <v>2128</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2124</v>
+        <v>2134</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>147</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1750</v>
+        <v>2275</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>1941</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>2078</v>
+        <v>1816</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>1917</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2125</v>
+        <v>1817</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>1917</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>2126</v>
+        <v>2013</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>1941</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2127</v>
+        <v>1775</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E143" t="s">
-        <v>1917</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2128</v>
+        <v>1775</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E144" t="s">
-        <v>1917</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1751</v>
+        <v>2245</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>1917</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>1752</v>
+        <v>2059</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>1917</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>1753</v>
+        <v>2269</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>119</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>1754</v>
+        <v>1721</v>
       </c>
       <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148">
         <v>2</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148">
-        <v>99</v>
-      </c>
       <c r="E148" t="s">
-        <v>1917</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>1755</v>
+        <v>1721</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -20377,15 +20431,15 @@
         <v>5</v>
       </c>
       <c r="D149">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>1917</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>1756</v>
+        <v>1721</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -20394,423 +20448,423 @@
         <v>5</v>
       </c>
       <c r="D150">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>1941</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>1757</v>
+        <v>1826</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>99</v>
       </c>
       <c r="E151" t="s">
-        <v>1932</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>2129</v>
+        <v>2160</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>1956</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>2130</v>
+        <v>2219</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>1968</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2131</v>
+        <v>1792</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>1963</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2132</v>
+        <v>1739</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>1956</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1758</v>
+        <v>1793</v>
       </c>
       <c r="B156">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>1956</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2133</v>
+        <v>2231</v>
       </c>
       <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157">
         <v>3</v>
       </c>
-      <c r="C157" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
       <c r="E157" t="s">
-        <v>1956</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1749</v>
+        <v>1699</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
         <v>3</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>1966</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2128</v>
+        <v>2277</v>
       </c>
       <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
         <v>3</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>1966</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2134</v>
+        <v>2120</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>1966</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2135</v>
+        <v>2107</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>1856</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1760</v>
+        <v>2087</v>
       </c>
       <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
         <v>3</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>1958</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>2136</v>
+        <v>2174</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>1968</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1761</v>
+        <v>2232</v>
       </c>
       <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164">
         <v>3</v>
       </c>
-      <c r="C164" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
       <c r="E164" t="s">
-        <v>1856</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>2137</v>
+        <v>2088</v>
       </c>
       <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
         <v>3</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
-      </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>1972</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>2138</v>
+        <v>2099</v>
       </c>
       <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
         <v>3</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
-      </c>
       <c r="D166">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
-        <v>1856</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2139</v>
+        <v>2092</v>
       </c>
       <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
         <v>3</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
-      </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>1956</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1709</v>
+        <v>2093</v>
       </c>
       <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
         <v>3</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
-      </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>1856</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1762</v>
+        <v>2060</v>
       </c>
       <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
         <v>3</v>
       </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>1956</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2140</v>
+        <v>2100</v>
       </c>
       <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
         <v>3</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
-      </c>
       <c r="D170">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>177</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1759</v>
+        <v>2101</v>
       </c>
       <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
         <v>3</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
       <c r="D171">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>1856</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1763</v>
+        <v>1733</v>
       </c>
       <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
         <v>3</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
       <c r="D172">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E172" t="s">
-        <v>177</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>2141</v>
+        <v>1827</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E173" t="s">
-        <v>1856</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2142</v>
+        <v>1794</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>1856</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>2078</v>
+        <v>1759</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -20819,7 +20873,7 @@
         <v>7</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E175" t="s">
         <v>1856</v>
@@ -20827,381 +20881,381 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>2143</v>
+        <v>2233</v>
       </c>
       <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176">
         <v>3</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176">
-        <v>4</v>
-      </c>
       <c r="E176" t="s">
-        <v>1856</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>1956</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1764</v>
+        <v>2259</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D178">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>1856</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1765</v>
+        <v>1828</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D179">
         <v>99</v>
       </c>
       <c r="E179" t="s">
-        <v>1856</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1866</v>
+        <v>2236</v>
       </c>
       <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180">
         <v>4</v>
       </c>
-      <c r="C180" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
       <c r="E180" t="s">
-        <v>1988</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2145</v>
+        <v>2240</v>
       </c>
       <c r="B181">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>1994</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>2146</v>
+        <v>2121</v>
       </c>
       <c r="B182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>2046</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2147</v>
+        <v>2220</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183" t="s">
-        <v>1994</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1702</v>
+        <v>2175</v>
       </c>
       <c r="B184">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D184">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>1990</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1767</v>
+        <v>2108</v>
       </c>
       <c r="B185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>198</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2070</v>
+        <v>2176</v>
       </c>
       <c r="B186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>1990</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>2148</v>
+        <v>2061</v>
       </c>
       <c r="B187">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>186</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1768</v>
+        <v>2177</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>198</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2149</v>
+        <v>2178</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>198</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2150</v>
+        <v>2179</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>198</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1769</v>
+        <v>2180</v>
       </c>
       <c r="B191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D191">
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>186</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2151</v>
+        <v>2181</v>
       </c>
       <c r="B192">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>198</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2152</v>
+        <v>2182</v>
       </c>
       <c r="B193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>186</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1771</v>
+        <v>2183</v>
       </c>
       <c r="B194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>1975</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2153</v>
+        <v>2184</v>
       </c>
       <c r="B195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>186</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1766</v>
+        <v>1807</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>1988</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2154</v>
+        <v>1722</v>
       </c>
       <c r="B197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>1988</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -21213,12 +21267,12 @@
         <v>2</v>
       </c>
       <c r="E198" t="s">
-        <v>186</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -21230,63 +21284,63 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>186</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>2156</v>
+        <v>2185</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>186</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>2157</v>
+        <v>1829</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E201" t="s">
-        <v>186</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1770</v>
+        <v>1808</v>
       </c>
       <c r="B202">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D202">
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>186</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2158</v>
+        <v>1776</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -21295,185 +21349,185 @@
         <v>9</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E203" t="s">
-        <v>186</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>2159</v>
+        <v>1700</v>
       </c>
       <c r="B204">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>186</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1772</v>
+        <v>1700</v>
       </c>
       <c r="B205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>186</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>2160</v>
+        <v>2096</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>198</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1718</v>
+        <v>2122</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D207">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>198</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1774</v>
+        <v>2122</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D208">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>198</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1775</v>
+        <v>2109</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D209">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>1977</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1776</v>
+        <v>2109</v>
       </c>
       <c r="B210">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D210">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E210" t="s">
-        <v>1977</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1777</v>
+        <v>2186</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D211">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>1975</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1778</v>
+        <v>2187</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D212">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>186</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1779</v>
+        <v>2135</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D213">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>198</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -21482,134 +21536,134 @@
         <v>9</v>
       </c>
       <c r="D214">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1781</v>
+        <v>1740</v>
       </c>
       <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
         <v>5</v>
       </c>
-      <c r="C215" t="s">
-        <v>11</v>
-      </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>2003</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1782</v>
+        <v>1701</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>2003</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1783</v>
+        <v>1755</v>
       </c>
       <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
         <v>5</v>
       </c>
-      <c r="C217" t="s">
-        <v>11</v>
-      </c>
       <c r="D217">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E217" t="s">
-        <v>2003</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1784</v>
+        <v>2221</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D218">
         <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>2003</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>70</v>
+        <v>1809</v>
       </c>
       <c r="B219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D219">
         <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1785</v>
+        <v>1723</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>2003</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1786</v>
+        <v>1734</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E221" t="s">
-        <v>2003</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>2161</v>
+        <v>1810</v>
       </c>
       <c r="B222">
         <v>6</v>
@@ -21618,15 +21672,15 @@
         <v>14</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1787</v>
+        <v>2246</v>
       </c>
       <c r="B223">
         <v>6</v>
@@ -21635,15 +21689,15 @@
         <v>14</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E223" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>2162</v>
+        <v>2188</v>
       </c>
       <c r="B224">
         <v>6</v>
@@ -21655,29 +21709,29 @@
         <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>2008</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1735</v>
+        <v>2147</v>
       </c>
       <c r="B225">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D225">
         <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>2024</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>2054</v>
+        <v>2189</v>
       </c>
       <c r="B226">
         <v>6</v>
@@ -21689,12 +21743,12 @@
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>1697</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>2163</v>
+        <v>1795</v>
       </c>
       <c r="B227">
         <v>6</v>
@@ -21706,114 +21760,114 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>1800</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>2164</v>
+        <v>2278</v>
       </c>
       <c r="B228">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>1800</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1788</v>
+        <v>2279</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>1715</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1789</v>
+        <v>2089</v>
       </c>
       <c r="B230">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>1715</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>2165</v>
+        <v>2062</v>
       </c>
       <c r="B231">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D231">
         <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>1800</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1716</v>
+        <v>1702</v>
       </c>
       <c r="B232">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D232">
         <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>2024</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>2166</v>
+        <v>1702</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D233">
         <v>1</v>
       </c>
       <c r="E233" t="s">
-        <v>2024</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1790</v>
+        <v>2190</v>
       </c>
       <c r="B234">
         <v>6</v>
@@ -21825,12 +21879,12 @@
         <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>2040</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>2167</v>
+        <v>2191</v>
       </c>
       <c r="B235">
         <v>6</v>
@@ -21842,63 +21896,63 @@
         <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>2040</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>2168</v>
+        <v>2090</v>
       </c>
       <c r="B236">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>2026</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1791</v>
+        <v>2090</v>
       </c>
       <c r="B237">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>2169</v>
+        <v>1703</v>
       </c>
       <c r="B238">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D238">
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>2021</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>2170</v>
+        <v>2276</v>
       </c>
       <c r="B239">
         <v>6</v>
@@ -21910,29 +21964,29 @@
         <v>1</v>
       </c>
       <c r="E239" t="s">
-        <v>11</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1737</v>
+        <v>1704</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D240">
         <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>1800</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>2171</v>
+        <v>1820</v>
       </c>
       <c r="B241">
         <v>6</v>
@@ -21941,15 +21995,15 @@
         <v>14</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E241" t="s">
-        <v>2010</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>2172</v>
+        <v>1811</v>
       </c>
       <c r="B242">
         <v>6</v>
@@ -21958,83 +22012,83 @@
         <v>14</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>2173</v>
+        <v>1741</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D243">
         <v>1</v>
       </c>
       <c r="E243" t="s">
-        <v>1812</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1792</v>
+        <v>1724</v>
       </c>
       <c r="B244">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>1800</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1793</v>
+        <v>1724</v>
       </c>
       <c r="B245">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>2040</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>2174</v>
+        <v>1742</v>
       </c>
       <c r="B246">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D246">
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>2039</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1794</v>
+        <v>2192</v>
       </c>
       <c r="B247">
         <v>6</v>
@@ -22051,58 +22105,58 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>2175</v>
+        <v>2102</v>
       </c>
       <c r="B248">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>1812</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>2176</v>
+        <v>2063</v>
       </c>
       <c r="B249">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D249">
         <v>1</v>
       </c>
       <c r="E249" t="s">
-        <v>1812</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>2177</v>
+        <v>2097</v>
       </c>
       <c r="B250">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E250" t="s">
-        <v>2014</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>2178</v>
+        <v>2222</v>
       </c>
       <c r="B251">
         <v>6</v>
@@ -22111,32 +22165,32 @@
         <v>14</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>1800</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>2179</v>
+        <v>1705</v>
       </c>
       <c r="B252">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D252">
         <v>1</v>
       </c>
       <c r="E252" t="s">
-        <v>2021</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>2180</v>
+        <v>1796</v>
       </c>
       <c r="B253">
         <v>6</v>
@@ -22148,46 +22202,46 @@
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>1797</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>2181</v>
+        <v>2110</v>
       </c>
       <c r="B254">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D254">
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>2001</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>2182</v>
+        <v>1706</v>
       </c>
       <c r="B255">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D255">
         <v>1</v>
       </c>
       <c r="E255" t="s">
-        <v>1814</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>2183</v>
+        <v>1821</v>
       </c>
       <c r="B256">
         <v>6</v>
@@ -22196,32 +22250,32 @@
         <v>14</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E256" t="s">
-        <v>1812</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>2184</v>
+        <v>1744</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D257">
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>1800</v>
+        <v>121</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>2185</v>
+        <v>1744</v>
       </c>
       <c r="B258">
         <v>6</v>
@@ -22233,63 +22287,63 @@
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>2046</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>2186</v>
+        <v>1743</v>
       </c>
       <c r="B259">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D259">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>2008</v>
+        <v>121</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>2187</v>
+        <v>2064</v>
       </c>
       <c r="B260">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D260">
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>2041</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>2188</v>
+        <v>2065</v>
       </c>
       <c r="B261">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D261">
         <v>1</v>
       </c>
       <c r="E261" t="s">
-        <v>2024</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>2189</v>
+        <v>1797</v>
       </c>
       <c r="B262">
         <v>6</v>
@@ -22301,12 +22355,12 @@
         <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>2044</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1795</v>
+        <v>2252</v>
       </c>
       <c r="B263">
         <v>6</v>
@@ -22315,66 +22369,66 @@
         <v>14</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E263" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>2190</v>
+        <v>2155</v>
       </c>
       <c r="B264">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>2026</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>2191</v>
+        <v>2103</v>
       </c>
       <c r="B265">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>2026</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>2192</v>
+        <v>2066</v>
       </c>
       <c r="B266">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D266">
         <v>1</v>
       </c>
       <c r="E266" t="s">
-        <v>2029</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1796</v>
+        <v>2234</v>
       </c>
       <c r="B267">
         <v>6</v>
@@ -22383,66 +22437,66 @@
         <v>14</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>2039</v>
+        <v>274</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1744</v>
+        <v>1765</v>
       </c>
       <c r="B268">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E268" t="s">
-        <v>2024</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1797</v>
+        <v>2067</v>
       </c>
       <c r="B269">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D269">
         <v>1</v>
       </c>
       <c r="E269" t="s">
-        <v>1797</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1798</v>
+        <v>1747</v>
       </c>
       <c r="B270">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C270" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>1800</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1799</v>
+        <v>1812</v>
       </c>
       <c r="B271">
         <v>6</v>
@@ -22451,15 +22505,15 @@
         <v>14</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -22476,41 +22530,41 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>2193</v>
+        <v>1783</v>
       </c>
       <c r="B273">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C273" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273" t="s">
-        <v>2044</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1801</v>
+        <v>2068</v>
       </c>
       <c r="B274">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D274">
         <v>1</v>
       </c>
       <c r="E274" t="s">
-        <v>2044</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1802</v>
+        <v>1823</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -22519,32 +22573,32 @@
         <v>14</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E275" t="s">
-        <v>2040</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>2194</v>
+        <v>1767</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C276" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D276">
         <v>1</v>
       </c>
       <c r="E276" t="s">
-        <v>2021</v>
+        <v>198</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>2195</v>
+        <v>1799</v>
       </c>
       <c r="B277">
         <v>6</v>
@@ -22556,29 +22610,29 @@
         <v>1</v>
       </c>
       <c r="E277" t="s">
-        <v>2026</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>2196</v>
+        <v>1751</v>
       </c>
       <c r="B278">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E278" t="s">
-        <v>2032</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>2197</v>
+        <v>1800</v>
       </c>
       <c r="B279">
         <v>6</v>
@@ -22595,41 +22649,41 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1803</v>
+        <v>2263</v>
       </c>
       <c r="B280">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D280">
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>2039</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>2198</v>
+        <v>2274</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>2039</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="B282">
         <v>6</v>
@@ -22641,12 +22695,12 @@
         <v>1</v>
       </c>
       <c r="E282" t="s">
-        <v>1800</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>2200</v>
+        <v>1801</v>
       </c>
       <c r="B283">
         <v>6</v>
@@ -22658,12 +22712,12 @@
         <v>1</v>
       </c>
       <c r="E283" t="s">
-        <v>1800</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>2201</v>
+        <v>2223</v>
       </c>
       <c r="B284">
         <v>6</v>
@@ -22672,49 +22726,49 @@
         <v>14</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E284" t="s">
-        <v>1800</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>2202</v>
+        <v>2069</v>
       </c>
       <c r="B285">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D285">
         <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>1800</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1804</v>
+        <v>1707</v>
       </c>
       <c r="B286">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D286">
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>1800</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B287">
         <v>6</v>
@@ -22731,58 +22785,58 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>2203</v>
+        <v>2070</v>
       </c>
       <c r="B288">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D288">
         <v>1</v>
       </c>
       <c r="E288" t="s">
-        <v>2040</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>2204</v>
+        <v>2070</v>
       </c>
       <c r="B289">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D289">
         <v>1</v>
       </c>
       <c r="E289" t="s">
-        <v>2008</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>2205</v>
+        <v>2111</v>
       </c>
       <c r="B290">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D290">
         <v>1</v>
       </c>
       <c r="E290" t="s">
-        <v>2008</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>2206</v>
+        <v>1830</v>
       </c>
       <c r="B291">
         <v>6</v>
@@ -22791,15 +22845,15 @@
         <v>14</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E291" t="s">
-        <v>2040</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>2207</v>
+        <v>2194</v>
       </c>
       <c r="B292">
         <v>6</v>
@@ -22811,131 +22865,131 @@
         <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>1800</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1712</v>
+        <v>1760</v>
       </c>
       <c r="B293">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D293">
         <v>1</v>
       </c>
       <c r="E293" t="s">
-        <v>2024</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1757</v>
+        <v>1708</v>
       </c>
       <c r="B294">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D294">
         <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>1800</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>2208</v>
+        <v>2112</v>
       </c>
       <c r="B295">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C295" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>2014</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>2209</v>
+        <v>2071</v>
       </c>
       <c r="B296">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>11</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>2210</v>
+        <v>2124</v>
       </c>
       <c r="B297">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C297" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>2008</v>
+        <v>147</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>2211</v>
+        <v>2113</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E298" t="s">
-        <v>1814</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1806</v>
+        <v>2136</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E299" t="s">
-        <v>2007</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1715</v>
+        <v>1831</v>
       </c>
       <c r="B300">
         <v>6</v>
@@ -22944,32 +22998,32 @@
         <v>14</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E300" t="s">
-        <v>1715</v>
+        <v>274</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>2212</v>
+        <v>2148</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E301" t="s">
-        <v>2024</v>
+        <v>186</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>2119</v>
+        <v>1822</v>
       </c>
       <c r="B302">
         <v>6</v>
@@ -22978,15 +23032,15 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E302" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>2213</v>
+        <v>2224</v>
       </c>
       <c r="B303">
         <v>6</v>
@@ -22998,12 +23052,12 @@
         <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>2214</v>
+        <v>2195</v>
       </c>
       <c r="B304">
         <v>6</v>
@@ -23012,7 +23066,7 @@
         <v>14</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
         <v>2026</v>
@@ -23020,58 +23074,58 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>2215</v>
+        <v>2123</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D305">
         <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>2014</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>2216</v>
+        <v>1756</v>
       </c>
       <c r="B306">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C306" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E306" t="s">
-        <v>2014</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>2217</v>
+        <v>1768</v>
       </c>
       <c r="B307">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>2218</v>
+        <v>2241</v>
       </c>
       <c r="B308">
         <v>6</v>
@@ -23080,15 +23134,15 @@
         <v>14</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E308" t="s">
-        <v>1814</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>2219</v>
+        <v>2196</v>
       </c>
       <c r="B309">
         <v>6</v>
@@ -23097,32 +23151,32 @@
         <v>14</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>2046</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>2220</v>
+        <v>1785</v>
       </c>
       <c r="B310">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D310">
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>2023</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1807</v>
+        <v>2237</v>
       </c>
       <c r="B311">
         <v>6</v>
@@ -23131,15 +23185,15 @@
         <v>14</v>
       </c>
       <c r="D311">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>1715</v>
+        <v>274</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1808</v>
+        <v>2225</v>
       </c>
       <c r="B312">
         <v>6</v>
@@ -23151,114 +23205,114 @@
         <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>2040</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>2122</v>
+        <v>2149</v>
       </c>
       <c r="B313">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>2041</v>
+        <v>198</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>2109</v>
+        <v>2094</v>
       </c>
       <c r="B314">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C314" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>2041</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>2221</v>
+        <v>1777</v>
       </c>
       <c r="B315">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C315" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D315">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E315" t="s">
-        <v>1812</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1809</v>
+        <v>1725</v>
       </c>
       <c r="B316">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D316">
         <v>2</v>
       </c>
       <c r="E316" t="s">
-        <v>2007</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1810</v>
+        <v>2156</v>
       </c>
       <c r="B317">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C317" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D317">
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>2028</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1811</v>
+        <v>1778</v>
       </c>
       <c r="B318">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C318" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E318" t="s">
-        <v>2014</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>2222</v>
+        <v>1778</v>
       </c>
       <c r="B319">
         <v>6</v>
@@ -23267,32 +23321,32 @@
         <v>14</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E319" t="s">
-        <v>1752</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1812</v>
+        <v>2150</v>
       </c>
       <c r="B320">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C320" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E320" t="s">
-        <v>1812</v>
+        <v>198</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>2223</v>
+        <v>2197</v>
       </c>
       <c r="B321">
         <v>6</v>
@@ -23301,44 +23355,44 @@
         <v>14</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E321" t="s">
-        <v>2014</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>2224</v>
+        <v>1761</v>
       </c>
       <c r="B322">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C322" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E322" t="s">
-        <v>2026</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>2225</v>
+        <v>1752</v>
       </c>
       <c r="B323">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E323" t="s">
-        <v>2010</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -23360,7 +23414,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>2226</v>
+        <v>1803</v>
       </c>
       <c r="B325">
         <v>6</v>
@@ -23369,15 +23423,15 @@
         <v>14</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>1797</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>2227</v>
+        <v>2247</v>
       </c>
       <c r="B326">
         <v>6</v>
@@ -23386,15 +23440,15 @@
         <v>14</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E326" t="s">
-        <v>274</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1813</v>
+        <v>2248</v>
       </c>
       <c r="B327">
         <v>6</v>
@@ -23403,15 +23457,15 @@
         <v>14</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E327" t="s">
-        <v>2008</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>2228</v>
+        <v>2198</v>
       </c>
       <c r="B328">
         <v>6</v>
@@ -23420,15 +23474,15 @@
         <v>14</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E328" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1814</v>
+        <v>2238</v>
       </c>
       <c r="B329">
         <v>6</v>
@@ -23437,15 +23491,15 @@
         <v>14</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E329" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1815</v>
+        <v>2226</v>
       </c>
       <c r="B330">
         <v>6</v>
@@ -23457,12 +23511,12 @@
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>2040</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1780</v>
+        <v>2239</v>
       </c>
       <c r="B331">
         <v>6</v>
@@ -23471,83 +23525,83 @@
         <v>14</v>
       </c>
       <c r="D331">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E331" t="s">
-        <v>2040</v>
+        <v>274</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1711</v>
+        <v>1763</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C332" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D332">
         <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>1715</v>
+        <v>177</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>2074</v>
+        <v>2137</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C333" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" t="s">
-        <v>1715</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>2229</v>
+        <v>1769</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C334" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E334" t="s">
-        <v>1814</v>
+        <v>186</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>2230</v>
+        <v>2157</v>
       </c>
       <c r="B335">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1816</v>
+        <v>2253</v>
       </c>
       <c r="B336">
         <v>6</v>
@@ -23556,32 +23610,32 @@
         <v>14</v>
       </c>
       <c r="D336">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E336" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1817</v>
+        <v>2114</v>
       </c>
       <c r="B337">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C337" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>274</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>2231</v>
+        <v>2199</v>
       </c>
       <c r="B338">
         <v>6</v>
@@ -23590,7 +23644,7 @@
         <v>14</v>
       </c>
       <c r="D338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E338" t="s">
         <v>1800</v>
@@ -23598,7 +23652,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>2232</v>
+        <v>2200</v>
       </c>
       <c r="B339">
         <v>6</v>
@@ -23607,15 +23661,15 @@
         <v>14</v>
       </c>
       <c r="D339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>2039</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>2233</v>
+        <v>2201</v>
       </c>
       <c r="B340">
         <v>6</v>
@@ -23624,32 +23678,32 @@
         <v>14</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>1715</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>2234</v>
+        <v>2138</v>
       </c>
       <c r="B341">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C341" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>274</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>2235</v>
+        <v>2202</v>
       </c>
       <c r="B342">
         <v>6</v>
@@ -23658,7 +23712,7 @@
         <v>14</v>
       </c>
       <c r="D342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E342" t="s">
         <v>1800</v>
@@ -23666,7 +23720,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1818</v>
+        <v>2235</v>
       </c>
       <c r="B343">
         <v>6</v>
@@ -23678,12 +23732,12 @@
         <v>3</v>
       </c>
       <c r="E343" t="s">
-        <v>274</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>2236</v>
+        <v>1804</v>
       </c>
       <c r="B344">
         <v>6</v>
@@ -23692,66 +23746,66 @@
         <v>14</v>
       </c>
       <c r="D344">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E344" t="s">
-        <v>274</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>2237</v>
+        <v>1770</v>
       </c>
       <c r="B345">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C345" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>2238</v>
+        <v>1726</v>
       </c>
       <c r="B346">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C346" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E346" t="s">
-        <v>1797</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>2239</v>
+        <v>1727</v>
       </c>
       <c r="B347">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C347" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E347" t="s">
-        <v>274</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>2240</v>
+        <v>1832</v>
       </c>
       <c r="B348">
         <v>6</v>
@@ -23760,15 +23814,15 @@
         <v>14</v>
       </c>
       <c r="D348">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="E348" t="s">
-        <v>2014</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>2241</v>
+        <v>1805</v>
       </c>
       <c r="B349">
         <v>6</v>
@@ -23777,15 +23831,15 @@
         <v>14</v>
       </c>
       <c r="D349">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E349" t="s">
-        <v>2032</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>2242</v>
+        <v>2203</v>
       </c>
       <c r="B350">
         <v>6</v>
@@ -23794,151 +23848,151 @@
         <v>14</v>
       </c>
       <c r="D350">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E350" t="s">
-        <v>2008</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1819</v>
+        <v>2139</v>
       </c>
       <c r="B351">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C351" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D351">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E351" t="s">
-        <v>2026</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>2243</v>
+        <v>1709</v>
       </c>
       <c r="B352">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D352">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E352" t="s">
-        <v>1800</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>2244</v>
+        <v>1709</v>
       </c>
       <c r="B353">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C353" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D353">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>1814</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>2245</v>
+        <v>1709</v>
       </c>
       <c r="B354">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C354" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D354">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E354" t="s">
-        <v>2013</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>2246</v>
+        <v>2272</v>
       </c>
       <c r="B355">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C355" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D355">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>2028</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>1820</v>
+        <v>1762</v>
       </c>
       <c r="B356">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C356" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D356">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E356" t="s">
-        <v>2026</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>1821</v>
+        <v>1786</v>
       </c>
       <c r="B357">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D357">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E357" t="s">
-        <v>2032</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1822</v>
+        <v>1730</v>
       </c>
       <c r="B358">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D358">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E358" t="s">
-        <v>2026</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>2247</v>
+        <v>2227</v>
       </c>
       <c r="B359">
         <v>6</v>
@@ -23947,15 +24001,15 @@
         <v>14</v>
       </c>
       <c r="D359">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E359" t="s">
-        <v>2039</v>
+        <v>274</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>2248</v>
+        <v>2204</v>
       </c>
       <c r="B360">
         <v>6</v>
@@ -23964,15 +24018,15 @@
         <v>14</v>
       </c>
       <c r="D360">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E360" t="s">
-        <v>2039</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="B361">
         <v>6</v>
@@ -23981,15 +24035,15 @@
         <v>14</v>
       </c>
       <c r="D361">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E361" t="s">
-        <v>1814</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>2250</v>
+        <v>2205</v>
       </c>
       <c r="B362">
         <v>6</v>
@@ -23998,15 +24052,15 @@
         <v>14</v>
       </c>
       <c r="D362">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E362" t="s">
-        <v>274</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>2251</v>
+        <v>1833</v>
       </c>
       <c r="B363">
         <v>6</v>
@@ -24015,15 +24069,15 @@
         <v>14</v>
       </c>
       <c r="D363">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E363" t="s">
-        <v>198</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>2013</v>
+        <v>2249</v>
       </c>
       <c r="B364">
         <v>6</v>
@@ -24032,32 +24086,32 @@
         <v>14</v>
       </c>
       <c r="D364">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E364" t="s">
-        <v>2013</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>2252</v>
+        <v>1728</v>
       </c>
       <c r="B365">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C365" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D365">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E365" t="s">
-        <v>2039</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>1823</v>
+        <v>1834</v>
       </c>
       <c r="B366">
         <v>6</v>
@@ -24066,15 +24120,15 @@
         <v>14</v>
       </c>
       <c r="D366">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E366" t="s">
-        <v>274</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>2253</v>
+        <v>1813</v>
       </c>
       <c r="B367">
         <v>6</v>
@@ -24083,15 +24137,15 @@
         <v>14</v>
       </c>
       <c r="D367">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E367" t="s">
-        <v>198</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>1750</v>
+        <v>1835</v>
       </c>
       <c r="B368">
         <v>6</v>
@@ -24100,15 +24154,15 @@
         <v>14</v>
       </c>
       <c r="D368">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E368" t="s">
-        <v>2041</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>1697</v>
+        <v>1836</v>
       </c>
       <c r="B369">
         <v>6</v>
@@ -24120,29 +24174,29 @@
         <v>99</v>
       </c>
       <c r="E369" t="s">
-        <v>1697</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>1824</v>
+        <v>1779</v>
       </c>
       <c r="B370">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D370">
         <v>99</v>
       </c>
       <c r="E370" t="s">
-        <v>1812</v>
+        <v>198</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1825</v>
+        <v>1779</v>
       </c>
       <c r="B371">
         <v>6</v>
@@ -24154,29 +24208,29 @@
         <v>99</v>
       </c>
       <c r="E371" t="s">
-        <v>1825</v>
+        <v>274</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>1775</v>
+        <v>2151</v>
       </c>
       <c r="B372">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C372" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D372">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E372" t="s">
-        <v>2013</v>
+        <v>198</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="B373">
         <v>6</v>
@@ -24185,32 +24239,32 @@
         <v>14</v>
       </c>
       <c r="D373">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E373" t="s">
-        <v>2014</v>
+        <v>274</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>1827</v>
+        <v>1750</v>
       </c>
       <c r="B374">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C374" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D374">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E374" t="s">
-        <v>2029</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1828</v>
+        <v>1750</v>
       </c>
       <c r="B375">
         <v>6</v>
@@ -24219,32 +24273,32 @@
         <v>14</v>
       </c>
       <c r="D375">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E375" t="s">
-        <v>246</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1829</v>
+        <v>1748</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C376" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D376">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E376" t="s">
-        <v>2040</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1830</v>
+        <v>2228</v>
       </c>
       <c r="B377">
         <v>6</v>
@@ -24253,32 +24307,32 @@
         <v>14</v>
       </c>
       <c r="D377">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E377" t="s">
-        <v>1812</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1831</v>
+        <v>2265</v>
       </c>
       <c r="B378">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C378" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D378">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E378" t="s">
-        <v>274</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1778</v>
+        <v>2206</v>
       </c>
       <c r="B379">
         <v>6</v>
@@ -24287,7 +24341,7 @@
         <v>14</v>
       </c>
       <c r="D379">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E379" t="s">
         <v>2040</v>
@@ -24295,58 +24349,58 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>1832</v>
+        <v>2266</v>
       </c>
       <c r="B380">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D380">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E380" t="s">
-        <v>2040</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1833</v>
+        <v>2072</v>
       </c>
       <c r="B381">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C381" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D381">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E381" t="s">
-        <v>1800</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>1834</v>
+        <v>2115</v>
       </c>
       <c r="B382">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C382" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D382">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E382" t="s">
-        <v>2040</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B383">
         <v>6</v>
@@ -24358,12 +24412,12 @@
         <v>99</v>
       </c>
       <c r="E383" t="s">
-        <v>2023</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1836</v>
+        <v>2207</v>
       </c>
       <c r="B384">
         <v>6</v>
@@ -24372,15 +24426,15 @@
         <v>14</v>
       </c>
       <c r="D384">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E384" t="s">
-        <v>2023</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>1779</v>
+        <v>1814</v>
       </c>
       <c r="B385">
         <v>6</v>
@@ -24389,66 +24443,66 @@
         <v>14</v>
       </c>
       <c r="D385">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E385" t="s">
-        <v>274</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1837</v>
+        <v>2073</v>
       </c>
       <c r="B386">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D386">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>1800</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>1838</v>
+        <v>2073</v>
       </c>
       <c r="B387">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C387" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D387">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>1800</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>1839</v>
+        <v>1710</v>
       </c>
       <c r="B388">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D388">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E388" t="s">
-        <v>1800</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="B389">
         <v>6</v>
@@ -24457,13 +24511,324 @@
         <v>14</v>
       </c>
       <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B390">
+        <v>4</v>
+      </c>
+      <c r="C390" t="s">
+        <v>9</v>
+      </c>
+      <c r="D390">
         <v>99</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E390" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B391">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s">
+        <v>14</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393" t="s">
+        <v>5</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B395">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+      <c r="E395" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>3</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B397">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+      <c r="C398" t="s">
+        <v>9</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B400">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B401">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>14</v>
+      </c>
+      <c r="D401">
+        <v>99</v>
+      </c>
+      <c r="E401" t="s">
         <v>1800</v>
       </c>
     </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B402">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+      <c r="D403">
+        <v>99</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B404">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405" t="s">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B406">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>14</v>
+      </c>
+      <c r="D406">
+        <v>99</v>
+      </c>
+      <c r="E406" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B407">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407">
+        <v>99</v>
+      </c>
+      <c r="E407" t="s">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0500-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E407">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24472,7 +24837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79703D5B-C890-40E5-A228-DD50F9AC0CE1}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
